--- a/data/trans_dic/P44A$endoscopia-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44A$endoscopia-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,65; 73,95</t>
+          <t>26,12; 76,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,1; 60,28</t>
+          <t>24,04; 61,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,9; 53,12</t>
+          <t>34,94; 52,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,29; 87,02</t>
+          <t>40,32; 87,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,0; 72,64</t>
+          <t>33,67; 72,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,38; 47,35</t>
+          <t>34,16; 47,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,14; 76,87</t>
+          <t>41,98; 74,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,41; 61,06</t>
+          <t>33,11; 61,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,75; 47,67</t>
+          <t>36,85; 48,37</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39,66; 80,23</t>
+          <t>40,41; 83,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,71; 73,53</t>
+          <t>43,09; 73,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,0; 94,8</t>
+          <t>41,45; 94,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,99; 82,4</t>
+          <t>50,98; 82,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,86; 68,26</t>
+          <t>30,4; 67,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,17; 45,8</t>
+          <t>32,54; 44,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,05; 78,35</t>
+          <t>52,18; 76,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,91; 66,58</t>
+          <t>42,16; 65,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,55; 90,71</t>
+          <t>40,23; 90,45</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,18; 84,62</t>
+          <t>46,06; 87,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,94; 76,45</t>
+          <t>40,46; 77,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,22; 48,8</t>
+          <t>31,58; 48,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,74; 78,82</t>
+          <t>39,55; 80,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,11; 77,03</t>
+          <t>28,58; 77,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,86; 44,06</t>
+          <t>27,54; 43,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>49,59; 78,4</t>
+          <t>48,64; 77,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>43,01; 71,79</t>
+          <t>43,18; 70,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,29; 44,76</t>
+          <t>31,23; 43,82</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>41,25; 74,97</t>
+          <t>43,62; 76,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,23; 62,76</t>
+          <t>34,93; 60,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,07; 48,19</t>
+          <t>36,04; 48,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,7; 72,06</t>
+          <t>32,21; 71,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,14; 79,83</t>
+          <t>46,05; 80,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,69; 38,25</t>
+          <t>28,1; 39,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,94; 68,75</t>
+          <t>43,86; 68,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,19; 65,33</t>
+          <t>44,54; 65,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,45; 41,24</t>
+          <t>33,4; 41,68</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>50,73; 71,59</t>
+          <t>51,6; 71,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,78; 59,33</t>
+          <t>44,01; 59,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,36; 83,49</t>
+          <t>41,3; 83,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>51,54; 71,3</t>
+          <t>51,77; 71,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,67; 65,08</t>
+          <t>45,85; 65,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,43; 39,8</t>
+          <t>33,06; 39,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>54,16; 68,36</t>
+          <t>54,6; 69,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,5; 60,22</t>
+          <t>47,22; 59,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>38,75; 74,49</t>
+          <t>38,95; 72,6</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población al que le han realizado al menor una endoscopia para detectar cáncer de colon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7957</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12823</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>40234</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10225</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13524</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>39500</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18182</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26348</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>79734</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3971; 11641</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7427; 18970</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>32103; 48405</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6129; 13277</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8606; 18641</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>33306; 46489</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12761; 22764</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18689; 34466</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>69795; 91600</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16607</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23215</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>307392</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24548</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>16677</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>49519</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>41156</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>39892</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>356911</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10659; 21999</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17022; 28982</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>160403; 365945</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18541; 30070</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10237; 22848</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>41389; 57222</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>32742; 48188</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>30851; 48096</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>206835; 465082</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17888</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18381</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>42661</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16181</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11116</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>25713</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>34069</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>29498</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>68374</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12139; 23067</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12458; 23754</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>33685; 51777</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10449; 21173</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5803; 15716</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19916; 31425</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25672; 40854</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22060; 36110</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>55881; 78412</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>24639</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>28284</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>80142</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15174</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>23822</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>59571</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>39813</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>52106</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>139713</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18073; 31513</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>20435; 35242</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>68903; 93244</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9328; 20840</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>16850; 29293</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>50894; 70757</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>30874; 48500</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>42355; 62285</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>124362; 155195</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>67090</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>82704</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>470429</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>66129</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>65140</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>174304</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>133220</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>147844</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>644732</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>56432; 78039</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>70282; 95764</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>320782; 647154</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>55368; 76114</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>53248; 76196</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>158068; 188697</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>118116; 149759</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>130232; 164680</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>488756; 910962</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44A$endoscopia-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44A$endoscopia-Habitat-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una endoscopia para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una endoscopia para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1226,7 +1226,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una endoscopia para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una endoscopia para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
